--- a/数据整理/stocks/A股/上证主板/603225-新凤鸣.xlsx
+++ b/数据整理/stocks/A股/上证主板/603225-新凤鸣.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008124</t>
+          <t>002132</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中邮中证500指数增强C</t>
+          <t>广发鑫享灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.83</t>
+          <t>12.66</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>80.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5811</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002132</t>
+          <t>590007</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发鑫享灵活配置混合</t>
+          <t>中邮中证500指数增强A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>80.54</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>590007</t>
+          <t>008124</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中邮中证500指数增强A</t>
+          <t>中邮中证500指数增强C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>94.83</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.96</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -622,26 +672,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003318</t>
+          <t>011121</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城中证500行业中性低波动指数</t>
+          <t>广发兴诚混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>107.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>62.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4356</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -650,25 +710,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>512260</t>
+          <t>011130</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华安中证500行业中性低波动ETF</t>
+          <t>广发兴诚混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>98.03</t>
+          <t>61.72</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>62.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9689</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -678,26 +748,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011121</t>
+          <t>003318</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发兴诚混合A</t>
+          <t>景顺长城中证500行业中性低波动指数</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>62.91</t>
+          <t>14.66</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1319</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -706,25 +786,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011130</t>
+          <t>512260</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发兴诚混合C</t>
+          <t>华安中证500行业中性低波动ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>62.91</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603225-新凤鸣.xlsx
+++ b/数据整理/stocks/A股/上证主板/603225-新凤鸣.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -821,4 +822,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004997</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>219.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.9321</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011121</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发兴诚混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.4358</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011130</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发兴诚混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>52.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.0146</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002132</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>36.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9142</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010160</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8004</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008420</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发招泰混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>21.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008421</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发招泰混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>21.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603225-新凤鸣.xlsx
+++ b/数据整理/stocks/A股/上证主板/603225-新凤鸣.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1144,4 +1145,440 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004997</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>182.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.6157</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011121</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发兴诚混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>73.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.4616</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011479</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发诚享混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>62.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.5146</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011130</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发兴诚混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3185</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010160</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4758</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011480</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发诚享混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3679</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005005</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1046</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005396</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中金丰硕混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>60.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004775</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实新添泽定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005006</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>73.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603225-新凤鸣.xlsx
+++ b/数据整理/stocks/A股/上证主板/603225-新凤鸣.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1581,4 +1582,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603225-新凤鸣.xlsx
+++ b/数据整理/stocks/A股/上证主板/603225-新凤鸣.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1590,7 +1591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1601,17 +1602,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1621,14 +1642,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>19.96</v>
+          <t>004997</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>182.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.6594</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1637,14 +1680,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>22.16</v>
+          <t>011121</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发兴诚混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>67.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.9745</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1653,14 +1718,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.55</v>
+          <t>011479</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发诚享混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>56.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.1330</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1669,13 +1756,379 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011130</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发兴诚混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>36.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1118</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010160</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3497</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3193</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011480</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发诚享混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3152</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005005</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>56.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005006</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>56.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.95</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>22.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.59</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603225-新凤鸣.xlsx
+++ b/数据整理/stocks/A股/上证主板/603225-新凤鸣.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2027,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2038,17 +2039,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2058,14 +2079,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16.95</v>
+          <t>011121</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发兴诚混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>53.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0881</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2074,14 +2117,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>19.96</v>
+          <t>011479</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发诚享混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4398</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2090,14 +2155,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>22.16</v>
+          <t>011130</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发兴诚混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6623</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2106,14 +2193,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.55</v>
+          <t>011480</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发诚享混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2481</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2122,13 +2231,281 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001484</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘新价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004916</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实新添丰定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.95</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>19.96</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22.16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.59</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603225-新凤鸣.xlsx
+++ b/数据整理/stocks/A股/上证主板/603225-新凤鸣.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2388,7 +2389,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2399,17 +2400,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2419,14 +2440,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.57</v>
+          <t>014598</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>永赢合享混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>24.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2435,14 +2478,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>014599</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>永赢合享混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>16.95</v>
+        <v>7.57</v>
       </c>
     </row>
     <row r="4">
@@ -2451,14 +2584,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>19.96</v>
+        <v>16.95</v>
       </c>
     </row>
     <row r="5">
@@ -2467,14 +2600,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>22.16</v>
+        <v>19.96</v>
       </c>
     </row>
     <row r="6">
@@ -2483,14 +2616,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>5.55</v>
+        <v>22.16</v>
       </c>
     </row>
     <row r="7">
@@ -2499,13 +2632,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.59</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603225-新凤鸣.xlsx
+++ b/数据整理/stocks/A股/上证主板/603225-新凤鸣.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,167 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002132</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发鑫享灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12.66</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>80.54</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5811</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.95</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>19.96</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>22.16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>590007</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中邮中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0071</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008124</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中邮中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.59</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -627,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -648,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -678,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011121</t>
+          <t>014598</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发兴诚混合A</t>
+          <t>永赢合享混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>107.70</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>62.91</t>
+          <t>24.61</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.4356</t>
+          <t>0.0023</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -716,112 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011130</t>
+          <t>014599</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发兴诚混合C</t>
+          <t>永赢合享混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>61.72</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>62.91</t>
+          <t>24.61</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.9689</t>
+          <t>0.0001</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>003318</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>景顺长城中证500行业中性低波动指数</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>14.66</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.33</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1319</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
         <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>512260</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华安中证500行业中性低波动ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>98.03</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0133</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -835,7 +737,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -856,7 +758,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -886,36 +788,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004997</t>
+          <t>011121</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发高端制造股票A</t>
+          <t>广发兴诚混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>219.08</t>
+          <t>53.52</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.43</t>
+          <t>94.10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10.9321</t>
+          <t>3.0881</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -924,36 +826,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011121</t>
+          <t>011479</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发兴诚混合A</t>
+          <t>广发诚享混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.70</t>
+          <t>44.44</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.10</t>
+          <t>93.13</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.74</t>
+          <t>5.49</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>5.4358</t>
+          <t>2.4398</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -972,26 +874,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>52.52</t>
+          <t>28.81</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>85.10</t>
+          <t>94.10</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.74</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.0146</t>
+          <t>1.6623</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1000,36 +902,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002132</t>
+          <t>011480</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发鑫享灵活配置混合</t>
+          <t>广发诚享混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>36.53</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.39</t>
+          <t>93.13</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.24</t>
+          <t>5.49</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.9142</t>
+          <t>0.2481</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1038,36 +940,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010160</t>
+          <t>001484</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发高端制造股票C</t>
+          <t>天弘新价值灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>16.04</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.43</t>
+          <t>89.24</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.8004</t>
+          <t>0.0762</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1076,36 +978,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008420</t>
+          <t>009613</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发招泰混合A</t>
+          <t>上银中证500指数增强A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.84</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>21.33</t>
+          <t>90.41</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0491</t>
+          <t>0.0345</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1114,36 +1016,74 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008421</t>
+          <t>009614</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发招泰混合C</t>
+          <t>上银中证500指数增强C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>21.33</t>
+          <t>90.41</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0144</t>
+          <t>0.0207</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004916</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实新添丰定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1178,7 +1118,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1218,26 +1158,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>182.15</t>
+          <t>182.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.26</t>
+          <t>92.51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>8.6157</t>
+          <t>6.6594</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1256,22 +1196,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>73.99</t>
+          <t>67.94</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.68</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.03</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4.4616</t>
+          <t>3.9745</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1294,26 +1234,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>62.76</t>
+          <t>56.86</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.15</t>
+          <t>94.09</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>5.51</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.5146</t>
+          <t>3.1330</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1332,22 +1272,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>38.45</t>
+          <t>36.10</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.68</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.03</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.3185</t>
+          <t>2.1118</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1370,26 +1310,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10.06</t>
+          <t>9.58</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.26</t>
+          <t>92.51</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.4758</t>
+          <t>0.3497</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1398,36 +1338,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011480</t>
+          <t>001557</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发诚享混合C</t>
+          <t>天弘中证500指数增强C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.57</t>
+          <t>19.12</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.15</t>
+          <t>94.71</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3679</t>
+          <t>0.3193</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1436,36 +1376,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005005</t>
+          <t>011480</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中金金泽量化精选混合A</t>
+          <t>广发诚享混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>5.72</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>73.89</t>
+          <t>94.09</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.31</t>
+          <t>5.51</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1046</t>
+          <t>0.3152</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1474,32 +1414,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005396</t>
+          <t>005005</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中金丰硕混合</t>
+          <t>中金金泽量化精选混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>60.62</t>
+          <t>56.17</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0919</t>
+          <t>0.0843</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1512,36 +1452,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>004775</t>
+          <t>001556</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>嘉实新添泽定期开放混合</t>
+          <t>天弘中证500指数增强A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>26.11</t>
+          <t>94.71</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0056</t>
+          <t>0.0017</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1565,12 +1505,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>73.89</t>
+          <t>56.17</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.31</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1579,7 +1519,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1614,7 +1554,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1654,26 +1594,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>182.45</t>
+          <t>182.15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.51</t>
+          <t>91.26</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6.6594</t>
+          <t>8.6157</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1692,22 +1632,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>67.94</t>
+          <t>73.99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>89.68</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.9745</t>
+          <t>4.4616</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1730,26 +1670,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>56.86</t>
+          <t>62.76</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.09</t>
+          <t>94.15</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.51</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.1330</t>
+          <t>3.5146</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1768,22 +1708,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>36.10</t>
+          <t>38.45</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>89.68</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.1118</t>
+          <t>2.3185</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1806,26 +1746,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.58</t>
+          <t>10.06</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.51</t>
+          <t>91.26</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3497</t>
+          <t>0.4758</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1834,36 +1774,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001557</t>
+          <t>011480</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天弘中证500指数增强C</t>
+          <t>广发诚享混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>19.12</t>
+          <t>6.57</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.71</t>
+          <t>94.15</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3193</t>
+          <t>0.3679</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1872,36 +1812,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011480</t>
+          <t>005005</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发诚享混合C</t>
+          <t>中金金泽量化精选混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5.72</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.09</t>
+          <t>73.89</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.51</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.3152</t>
+          <t>0.1046</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1910,32 +1850,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005005</t>
+          <t>005396</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中金金泽量化精选混合A</t>
+          <t>中金丰硕混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>56.17</t>
+          <t>60.62</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0843</t>
+          <t>0.0919</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1948,36 +1888,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001556</t>
+          <t>004775</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天弘中证500指数增强A</t>
+          <t>嘉实新添泽定期开放混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.71</t>
+          <t>26.11</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0017</t>
+          <t>0.0056</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -2001,12 +1941,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>56.17</t>
+          <t>73.89</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -2015,7 +1955,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2029,7 +1969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2050,7 +1990,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2080,36 +2020,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011121</t>
+          <t>004997</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发兴诚混合A</t>
+          <t>广发高端制造股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>53.52</t>
+          <t>219.08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>89.43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.77</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.0881</t>
+          <t>10.9321</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2118,36 +2058,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011479</t>
+          <t>011121</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发诚享混合A</t>
+          <t>广发兴诚混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>44.44</t>
+          <t>94.70</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.13</t>
+          <t>85.10</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.49</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.4398</t>
+          <t>5.4358</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2166,26 +2106,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>28.81</t>
+          <t>52.52</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>85.10</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.77</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.6623</t>
+          <t>3.0146</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2194,36 +2134,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011480</t>
+          <t>002132</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发诚享混合C</t>
+          <t>广发鑫享灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>36.53</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.13</t>
+          <t>89.39</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.49</t>
+          <t>5.24</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2481</t>
+          <t>1.9142</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2232,36 +2172,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001484</t>
+          <t>010160</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天弘新价值灵活配置混合</t>
+          <t>广发高端制造股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>16.04</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.24</t>
+          <t>89.43</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0762</t>
+          <t>0.8004</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -2270,36 +2210,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009613</t>
+          <t>008420</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>上银中证500指数增强A</t>
+          <t>广发招泰混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.41</t>
+          <t>21.33</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0345</t>
+          <t>0.0491</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -2308,74 +2248,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009614</t>
+          <t>008421</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>上银中证500指数增强C</t>
+          <t>广发招泰混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90.41</t>
+          <t>21.33</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0207</t>
+          <t>0.0144</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004916</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>嘉实新添丰定期开放混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>21.26</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0042</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2389,7 +2291,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2410,7 +2312,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2440,36 +2342,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>014598</t>
+          <t>011121</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>永赢合享混合A</t>
+          <t>广发兴诚混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>107.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>24.61</t>
+          <t>62.91</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0023</t>
+          <t>3.4356</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2478,36 +2380,112 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>014599</t>
+          <t>011130</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>永赢合享混合C</t>
+          <t>广发兴诚混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>61.72</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>24.61</t>
+          <t>62.91</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>1.9689</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1319</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2521,144 +2499,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>002132</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5811</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
-      <c r="D3" t="n">
-        <v>7.57</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16.95</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>19.96</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>7</v>
-      </c>
-      <c r="D6" t="n">
-        <v>22.16</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" t="n">
-        <v>5.55</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.59</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603225-新凤鸣.xlsx
+++ b/数据整理/stocks/A股/上证主板/603225-新凤鸣.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>7.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>16.95</v>
+        <v>7.57</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>19.96</v>
+        <v>16.95</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>22.16</v>
+        <v>19.96</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>5.55</v>
+        <v>22.16</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.59</v>
       </c>
     </row>
@@ -656,36 +673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>014598</t>
+          <t>920002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>永赢合享混合A</t>
+          <t>中金精选股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>24.61</t>
+          <t>82.28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0023</t>
+          <t>0.0702</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -694,36 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>014599</t>
+          <t>920922</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>永赢合享混合C</t>
+          <t>中金精选股票C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>24.61</t>
+          <t>82.28</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>0.0026</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -732,6 +749,138 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>014598</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>永赢合享混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>24.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014599</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>永赢合享混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1084,442 +1233,6 @@
       </c>
       <c r="H9" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>004997</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发高端制造股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>182.45</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.51</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>6.6594</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>011121</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发兴诚混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>67.94</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.58</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3.9745</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011479</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发诚享混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>56.86</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.51</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>3.1330</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011130</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发兴诚混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>36.10</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.58</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2.1118</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010160</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发高端制造股票C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>9.58</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.51</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3497</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001557</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>天弘中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>19.12</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.3193</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>011480</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>广发诚享混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5.72</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.51</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3152</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005005</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中金金泽量化精选混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>56.17</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0843</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001556</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>天弘中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0017</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005006</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中金金泽量化精选混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>56.17</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1554,7 +1267,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1594,26 +1307,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>182.15</t>
+          <t>182.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.26</t>
+          <t>92.51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>8.6157</t>
+          <t>6.6594</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1632,22 +1345,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>73.99</t>
+          <t>67.94</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.68</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.03</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4.4616</t>
+          <t>3.9745</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1670,26 +1383,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>62.76</t>
+          <t>56.86</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.15</t>
+          <t>94.09</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>5.51</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.5146</t>
+          <t>3.1330</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1708,22 +1421,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>38.45</t>
+          <t>36.10</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.68</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.03</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.3185</t>
+          <t>2.1118</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1746,26 +1459,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10.06</t>
+          <t>9.58</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.26</t>
+          <t>92.51</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.4758</t>
+          <t>0.3497</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1774,36 +1487,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011480</t>
+          <t>001557</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发诚享混合C</t>
+          <t>天弘中证500指数增强C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.57</t>
+          <t>19.12</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.15</t>
+          <t>94.71</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3679</t>
+          <t>0.3193</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1812,36 +1525,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005005</t>
+          <t>011480</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中金金泽量化精选混合A</t>
+          <t>广发诚享混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>5.72</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>73.89</t>
+          <t>94.09</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.31</t>
+          <t>5.51</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1046</t>
+          <t>0.3152</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1850,32 +1563,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005396</t>
+          <t>005005</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中金丰硕混合</t>
+          <t>中金金泽量化精选混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>60.62</t>
+          <t>56.17</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0919</t>
+          <t>0.0843</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1888,36 +1601,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>004775</t>
+          <t>001556</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>嘉实新添泽定期开放混合</t>
+          <t>天弘中证500指数增强A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>26.11</t>
+          <t>94.71</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0056</t>
+          <t>0.0017</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1941,12 +1654,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>73.89</t>
+          <t>56.17</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.31</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1955,7 +1668,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1964,6 +1677,442 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004997</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>182.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.6157</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011121</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发兴诚混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>73.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.4616</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011479</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发诚享混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>62.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.5146</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011130</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发兴诚混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3185</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010160</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4758</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011480</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发诚享混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3679</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005005</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1046</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005396</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中金丰硕混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>60.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004775</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实新添泽定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005006</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>73.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2285,7 +2434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2493,7 +2642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603225-新凤鸣.xlsx
+++ b/数据整理/stocks/A股/上证主板/603225-新凤鸣.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>7.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>16.95</v>
+        <v>7.57</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>19.96</v>
+        <v>16.95</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>22.16</v>
+        <v>19.96</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>5.55</v>
+        <v>22.16</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,204 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>3</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.59</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002132</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5811</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -622,7 +809,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,36 +860,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>920002</t>
+          <t>010418</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中金精选股票A</t>
+          <t>财通景气行业混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.28</t>
+          <t>86.37</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>7.78</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0702</t>
+          <t>0.2023</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -711,36 +898,1020 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>920922</t>
+          <t>501015</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中金精选股票C</t>
+          <t>财通多策略升级混合（LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1531</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1248</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013323</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国寿安保盛泽三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0901</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>168002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006973</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>太平睿盈混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>29.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011175</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>29.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010797</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城优选回报六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015271</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002660</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴业聚源混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29.85</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014321</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>德邦周期精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007669</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>太平睿盈混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013742</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴业聚源混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>29.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>017626</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长城久惠灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>360010</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>光大保德信均衡精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011176</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>29.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006522</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.41</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009671</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>平安恒泽混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>29.66</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010798</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长城优选回报六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006523</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>0.11</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>82.28</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.41</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013324</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国寿安保盛泽三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014322</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>德邦周期精选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>0.0026</t>
         </is>
       </c>
-      <c r="H3" t="n">
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012415</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>德邦上证 G60 创新综合指数增强A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009672</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>平安恒泽混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>29.66</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012416</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>德邦上证 G60 创新综合指数增强C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001363</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长城久惠灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>016234</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>财通景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -805,36 +1976,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>014598</t>
+          <t>920002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>永赢合享混合A</t>
+          <t>中金精选股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>24.61</t>
+          <t>82.28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0023</t>
+          <t>0.0702</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -843,36 +2014,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>014599</t>
+          <t>920922</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>永赢合享混合C</t>
+          <t>中金精选股票C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>24.61</t>
+          <t>82.28</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>0.0026</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -881,6 +2052,138 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>014598</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>永赢合享混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>24.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014599</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>永赢合享混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1233,442 +2536,6 @@
       </c>
       <c r="H9" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>004997</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发高端制造股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>182.45</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.51</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>6.6594</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>011121</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发兴诚混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>67.94</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.58</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3.9745</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011479</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发诚享混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>56.86</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.51</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>3.1330</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011130</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发兴诚混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>36.10</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.58</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2.1118</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010160</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发高端制造股票C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>9.58</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.51</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3497</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001557</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>天弘中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>19.12</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.3193</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>011480</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>广发诚享混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5.72</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.51</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3152</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005005</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中金金泽量化精选混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>56.17</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0843</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001556</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>天弘中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0017</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005006</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中金金泽量化精选混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>56.17</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1703,7 +2570,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1743,26 +2610,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>182.15</t>
+          <t>182.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.26</t>
+          <t>92.51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>8.6157</t>
+          <t>6.6594</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1781,22 +2648,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>73.99</t>
+          <t>67.94</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.68</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.03</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4.4616</t>
+          <t>3.9745</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1819,26 +2686,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>62.76</t>
+          <t>56.86</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.15</t>
+          <t>94.09</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>5.51</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.5146</t>
+          <t>3.1330</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1857,22 +2724,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>38.45</t>
+          <t>36.10</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.68</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.03</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.3185</t>
+          <t>2.1118</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1895,26 +2762,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10.06</t>
+          <t>9.58</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.26</t>
+          <t>92.51</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.4758</t>
+          <t>0.3497</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1923,36 +2790,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011480</t>
+          <t>001557</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发诚享混合C</t>
+          <t>天弘中证500指数增强C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.57</t>
+          <t>19.12</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.15</t>
+          <t>94.71</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3679</t>
+          <t>0.3193</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1961,36 +2828,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005005</t>
+          <t>011480</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中金金泽量化精选混合A</t>
+          <t>广发诚享混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>5.72</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>73.89</t>
+          <t>94.09</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.31</t>
+          <t>5.51</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1046</t>
+          <t>0.3152</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1999,32 +2866,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005396</t>
+          <t>005005</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中金丰硕混合</t>
+          <t>中金金泽量化精选混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>60.62</t>
+          <t>56.17</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0919</t>
+          <t>0.0843</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -2037,36 +2904,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>004775</t>
+          <t>001556</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>嘉实新添泽定期开放混合</t>
+          <t>天弘中证500指数增强A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>26.11</t>
+          <t>94.71</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0056</t>
+          <t>0.0017</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -2090,12 +2957,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>73.89</t>
+          <t>56.17</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.31</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -2104,7 +2971,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2113,6 +2980,442 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004997</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>182.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.6157</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011121</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发兴诚混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>73.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.4616</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011479</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发诚享混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>62.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.5146</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011130</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发兴诚混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3185</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010160</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4758</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011480</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发诚享混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3679</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005005</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1046</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005396</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中金丰硕混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>60.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004775</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实新添泽定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005006</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>73.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2434,7 +3737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2640,174 +3943,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002132</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发鑫享灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12.66</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>80.54</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5811</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>590007</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中邮中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0071</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008124</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中邮中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>